--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51851BF5-D8E1-429E-BE72-89889724434A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65D0FC8-C4B5-4B3E-BDCA-298BEBB327D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="4560" windowWidth="13970" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65D0FC8-C4B5-4B3E-BDCA-298BEBB327D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DF6F91-DFFE-4EDF-84C3-2CCE2C02B406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="4560" windowWidth="13970" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="3040" windowWidth="23090" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>University of Manchester</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>LAST animal handling course (2009)</t>
+  </si>
+  <si>
+    <t>Data Protection and Health Research (2021)</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -474,6 +477,9 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DF6F91-DFFE-4EDF-84C3-2CCE2C02B406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59031A53-C77E-4060-9A47-3F1FD637055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="23090" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="3600" windowWidth="21375" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>University of Manchester</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Data Protection and Health Research (2021)</t>
+  </si>
+  <si>
+    <t>Project Manegment</t>
   </si>
 </sst>
 </file>
@@ -421,16 +424,16 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -449,7 +452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -457,7 +460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -465,7 +468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -473,7 +476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -481,12 +484,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59031A53-C77E-4060-9A47-3F1FD637055B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E20745-DC88-45BF-BB39-03E2557C712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="3600" windowWidth="21375" windowHeight="14445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1530" yWindow="3820" windowWidth="31460" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>University of Manchester</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t>Project Manegment</t>
+  </si>
+  <si>
+    <t>Data Protection: Data Transfer and Secondary Use of Data  (2021)</t>
+  </si>
+  <si>
+    <t>Academic Practice: Perspectives on Teaching and Learning in Higher Education (1/3 SpCert - July 2022)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +104,14 @@
       <color rgb="FF111111"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -135,11 +149,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,19 +438,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -452,7 +469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -460,7 +477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -468,7 +485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -476,7 +493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -484,7 +501,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -492,9 +509,17 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E20745-DC88-45BF-BB39-03E2557C712B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098FC43C-7DDD-4D69-B5C5-405A5F6D1761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="3820" windowWidth="31460" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12480" yWindow="3135" windowWidth="17385" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>University of Manchester</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Academic Practice: Perspectives on Teaching and Learning in Higher Education (1/3 SpCert - July 2022)</t>
+  </si>
+  <si>
+    <t>Equality, Diversity and Inclusion in Higher Education</t>
   </si>
 </sst>
 </file>
@@ -438,19 +441,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -469,7 +472,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -477,7 +480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -485,7 +488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -493,7 +496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -501,7 +504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -509,7 +512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -517,9 +520,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/courses.xlsx
+++ b/data/courses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098FC43C-7DDD-4D69-B5C5-405A5F6D1761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FB54F7-3E65-DE40-A264-0922171A5AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12480" yWindow="3135" windowWidth="17385" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="4480" windowWidth="17380" windowHeight="13640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,24 +57,12 @@
     <t>Introduction to Python</t>
   </si>
   <si>
-    <t>Cyrogenics saftey workshop</t>
-  </si>
-  <si>
-    <t>Radiological saftey workshop</t>
-  </si>
-  <si>
-    <t>Biological saftey workshop</t>
-  </si>
-  <si>
     <t>LAST animal handling course (2009)</t>
   </si>
   <si>
     <t>Data Protection and Health Research (2021)</t>
   </si>
   <si>
-    <t>Project Manegment</t>
-  </si>
-  <si>
     <t>Data Protection: Data Transfer and Secondary Use of Data  (2021)</t>
   </si>
   <si>
@@ -82,6 +70,18 @@
   </si>
   <si>
     <t>Equality, Diversity and Inclusion in Higher Education</t>
+  </si>
+  <si>
+    <t>Biological safety workshop</t>
+  </si>
+  <si>
+    <t>Cryogenics safety workshop</t>
+  </si>
+  <si>
+    <t>Radiological safety workshop</t>
+  </si>
+  <si>
+    <t>Project Management</t>
   </si>
 </sst>
 </file>
@@ -443,17 +443,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,70 +464,70 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
